--- a/Matlab/Simscape models/Reduced Order Model/ROM-Ansys Validation/summary1.xlsx
+++ b/Matlab/Simscape models/Reduced Order Model/ROM-Ansys Validation/summary1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siril\OneDrive\Desktop\TIM-Control\Matlab\Simscape models\Reduced Order Model\ROM-Ansys Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B33016-9EAF-48A6-9EA6-55098538CBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E6FCE3-DFDD-402E-AA36-10E2DB17089E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18072" yWindow="12900" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FE_Validation" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,7 +125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -345,6 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -360,7 +361,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,69 +643,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C4" s="34" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
-      <c r="M4" s="34" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
+      <c r="M4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="36"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C6" s="34" t="s">
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="37"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="34" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
-      <c r="M6" s="34" t="s">
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="M6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="34" t="s">
+      <c r="N6" s="36"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="36"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q6" s="36"/>
+      <c r="R6" s="37"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -749,7 +749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -798,13 +798,13 @@
       <c r="R8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="32" t="s">
+      <c r="S8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -857,11 +857,11 @@
         <f t="shared" ref="R9:R28" si="1">100*(Q9-P9)/Q9</f>
         <v>48.269937479119932</v>
       </c>
-      <c r="S9" s="32"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S9" s="33"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -914,11 +914,11 @@
         <f t="shared" si="1"/>
         <v>44.244391971664697</v>
       </c>
-      <c r="S10" s="32"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S10" s="33"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
@@ -971,11 +971,11 @@
         <f t="shared" si="1"/>
         <v>43.469058657528727</v>
       </c>
-      <c r="S11" s="32"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S11" s="33"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
@@ -996,11 +996,11 @@
       <c r="P12" s="23"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="25"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S12" s="33"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D13" s="30"/>
       <c r="G13" s="22"/>
       <c r="I13" s="19"/>
@@ -1008,7 +1008,7 @@
       <c r="O13" s="22"/>
       <c r="R13" s="20"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>60.313560313560309</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>50.762505083367223</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>52.768009645333059</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>47.697863376467041</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>13</v>
       </c>
@@ -1246,7 +1246,7 @@
       <c r="Q18" s="23"/>
       <c r="R18" s="25"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D19" s="30"/>
       <c r="G19" s="22"/>
       <c r="I19" s="19"/>
@@ -1254,7 +1254,7 @@
       <c r="O19" s="22"/>
       <c r="R19" s="20"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>54.59916049126808</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>54.983078244178408</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>54.768098159509208</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>12</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>54.949007242449618</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>13</v>
       </c>
@@ -1492,14 +1492,14 @@
       <c r="Q24" s="23"/>
       <c r="R24" s="25"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D25" s="30"/>
       <c r="G25" s="22"/>
       <c r="J25" s="20"/>
       <c r="O25" s="22"/>
       <c r="R25" s="20"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>52.37953155303596</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>10</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>53.298848826005383</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>11</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>51.626655839212297</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>12</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>50.742205557553035</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>13</v>
       </c>
@@ -1737,7 +1737,7 @@
       <c r="Q30" s="23"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>19</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>53.240710360994967</v>
       </c>
     </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>25</v>
       </c>
@@ -1787,50 +1787,50 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="37">
+      <c r="H37" s="32">
         <f>AVERAGE(H9:H11,H14:H17,H20:H23,H26:H29)</f>
         <v>8.1285333333333334</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="32">
         <f>_xlfn.STDEV.P(H9:H11,H14:H17,H20:H23,H26:H29)</f>
         <v>0.6673523673609183</v>
       </c>
       <c r="N37" t="s">
         <v>24</v>
       </c>
-      <c r="P37" s="37">
+      <c r="P37" s="32">
         <f>AVERAGE(P9:P11,P14:P17,P20:P23,P26:P29)</f>
         <v>9.8014666666666681</v>
       </c>
-      <c r="Q37" s="37">
+      <c r="Q37" s="32">
         <f>_xlfn.STDEV.P(P9:P11,P14:P17,P20:P23,P26:P29)</f>
         <v>0.78765067271108347</v>
       </c>
     </row>
-    <row r="38" spans="6:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="37">
+      <c r="H38" s="32">
         <f>AVERAGE(I9:I11,I14:I17,I20:I23,I26:I29)</f>
         <v>9.1647333333333343</v>
       </c>
-      <c r="I38" s="37">
+      <c r="I38" s="32">
         <f>_xlfn.STDEV.P(I9:I11,I14:I17,I20:I23,I26:I29)</f>
         <v>0.16308871478090969</v>
       </c>
       <c r="N38" t="s">
         <v>26</v>
       </c>
-      <c r="P38" s="37">
+      <c r="P38" s="32">
         <f>AVERAGE(Q9:Q11,Q14:Q17,Q20:Q23,Q26:Q29)</f>
         <v>20.336533333333328</v>
       </c>
-      <c r="Q38" s="37">
+      <c r="Q38" s="32">
         <f>_xlfn.STDEV.P(Q9:Q11,Q14:Q17,Q20:Q23,Q26:Q29)</f>
         <v>1.4721349062576503</v>
       </c>
@@ -1849,4 +1849,171 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFCBBD4-0ACB-410A-8DC1-28452242BC7D}">
+  <dimension ref="J6:W9"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>500</v>
+      </c>
+      <c r="L6">
+        <v>1.3169999999999999</v>
+      </c>
+      <c r="M6">
+        <v>1.4695</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1000</v>
+      </c>
+      <c r="Q6">
+        <v>2.35</v>
+      </c>
+      <c r="R6">
+        <v>2.3576999999999999</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1500</v>
+      </c>
+      <c r="V6">
+        <v>2.9220000000000002</v>
+      </c>
+      <c r="W6">
+        <v>2.8437999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>2.5</v>
+      </c>
+      <c r="K7">
+        <v>500</v>
+      </c>
+      <c r="L7">
+        <v>4.24</v>
+      </c>
+      <c r="M7">
+        <v>4.7290000000000001</v>
+      </c>
+      <c r="O7">
+        <v>2.5</v>
+      </c>
+      <c r="P7">
+        <v>1000</v>
+      </c>
+      <c r="Q7">
+        <v>4.2809999999999997</v>
+      </c>
+      <c r="R7">
+        <v>4.5289000000000001</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
+        <v>1500</v>
+      </c>
+      <c r="V7">
+        <v>4.3780000000000001</v>
+      </c>
+      <c r="W7">
+        <v>4.4714999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>500</v>
+      </c>
+      <c r="L8">
+        <v>7.0990000000000002</v>
+      </c>
+      <c r="M8">
+        <v>7.7500999999999998</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>1000</v>
+      </c>
+      <c r="Q8">
+        <v>6.1909999999999998</v>
+      </c>
+      <c r="R8">
+        <v>6.5484999999999998</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>1500</v>
+      </c>
+      <c r="V8">
+        <v>5.8250000000000002</v>
+      </c>
+      <c r="W8">
+        <v>6.0202</v>
+      </c>
+    </row>
+    <row r="9" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>7.5</v>
+      </c>
+      <c r="K9">
+        <v>500</v>
+      </c>
+      <c r="L9">
+        <v>9.9039999999999999</v>
+      </c>
+      <c r="M9">
+        <v>10.733000000000001</v>
+      </c>
+      <c r="O9">
+        <v>7.5</v>
+      </c>
+      <c r="P9">
+        <v>1000</v>
+      </c>
+      <c r="Q9">
+        <v>8.0890000000000004</v>
+      </c>
+      <c r="R9">
+        <v>8.5542999999999996</v>
+      </c>
+      <c r="T9">
+        <v>7.5</v>
+      </c>
+      <c r="U9">
+        <v>1500</v>
+      </c>
+      <c r="V9">
+        <v>7.2670000000000003</v>
+      </c>
+      <c r="W9">
+        <v>7.5476000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>